--- a/Aula 26.02.2026/Atividade_01.xlsx
+++ b/Aula 26.02.2026/Atividade_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniel.baumann\Documents\2025\Técnico de Informática\git\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Professor\Documents\GitHub\excel\Aula 26.02.2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B39D78-5CFE-42F0-B841-06EFEA6ED46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3D7A7C-C95F-4AE3-8116-98FF9D0D8AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Funções Básicas" sheetId="1" r:id="rId1"/>
@@ -905,20 +905,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.59765625" customWidth="1"/>
-    <col min="2" max="2" width="13.59765625" customWidth="1"/>
-    <col min="3" max="6" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13.59765625" customWidth="1"/>
-    <col min="10" max="10" width="7.59765625" customWidth="1"/>
+    <col min="1" max="1" width="47.625" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="6" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -931,7 +931,7 @@
       <c r="H1" s="44"/>
       <c r="I1" s="45"/>
     </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -961,7 +961,7 @@
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -992,7 +992,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>173.33333333333334</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>196.66666666666666</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
@@ -1228,29 +1228,29 @@
         <v>818</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="16"/>
       <c r="D18" s="16"/>
     </row>
-    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>20</v>
       </c>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="D19" s="16"/>
     </row>
-    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>21</v>
       </c>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="D20" s="16"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>22</v>
       </c>
@@ -1289,7 +1289,7 @@
       <c r="C21" s="16"/>
       <c r="D21" s="16"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>23</v>
       </c>
@@ -1300,7 +1300,7 @@
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>24</v>
       </c>
@@ -1311,7 +1311,7 @@
       <c r="C23" s="16"/>
       <c r="D23" s="16"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>25</v>
       </c>
@@ -1322,980 +1322,980 @@
       <c r="C24" s="16"/>
       <c r="D24" s="16"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
@@ -2309,16 +2309,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="7" width="12.59765625" customWidth="1"/>
-    <col min="8" max="8" width="21.19921875" customWidth="1"/>
+    <col min="2" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>26</v>
       </c>
@@ -2344,7 +2346,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>33</v>
       </c>
@@ -2363,10 +2365,16 @@
       <c r="F2" s="23">
         <v>13</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G2" s="22">
+        <f>AVERAGE(B2:E2)</f>
+        <v>4.8250000000000002</v>
+      </c>
+      <c r="H2" s="23" t="str">
+        <f>IF(G2&gt;=7,"Aprovado","Reprovado")</f>
+        <v>Reprovado</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>34</v>
       </c>
@@ -2385,10 +2393,16 @@
       <c r="F3" s="26">
         <v>18</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G3" s="22">
+        <f t="shared" ref="G3:G6" si="0">AVERAGE(B3:E3)</f>
+        <v>6.5750000000000002</v>
+      </c>
+      <c r="H3" s="23" t="str">
+        <f t="shared" ref="H3:H6" si="1">IF(G3&gt;=7,"Aprovado","Reprovado")</f>
+        <v>Reprovado</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>35</v>
       </c>
@@ -2407,10 +2421,16 @@
       <c r="F4" s="23">
         <v>20</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G4" s="22">
+        <f t="shared" si="0"/>
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="H4" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Aprovado</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>36</v>
       </c>
@@ -2429,10 +2449,16 @@
       <c r="F5" s="26">
         <v>27</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G5" s="22">
+        <f t="shared" si="0"/>
+        <v>7.7750000000000004</v>
+      </c>
+      <c r="H5" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Aprovado</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>37</v>
       </c>
@@ -2451,10 +2477,16 @@
       <c r="F6" s="23">
         <v>29</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G6" s="22">
+        <f t="shared" si="0"/>
+        <v>4.7749999999999995</v>
+      </c>
+      <c r="H6" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>Reprovado</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -2463,7 +2495,7 @@
       <c r="G7" s="27"/>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -2472,7 +2504,7 @@
       <c r="G8" s="27"/>
       <c r="H8" s="28"/>
     </row>
-    <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>38</v>
       </c>
@@ -2486,7 +2518,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="28"/>
     </row>
-    <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>40</v>
       </c>
@@ -2500,7 +2532,7 @@
       <c r="G10" s="27"/>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -2509,7 +2541,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -2518,7 +2550,7 @@
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
@@ -2527,7 +2559,7 @@
       <c r="G13" s="27"/>
       <c r="H13" s="28"/>
     </row>
-    <row r="14" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -2536,7 +2568,7 @@
       <c r="G14" s="27"/>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -2545,7 +2577,7 @@
       <c r="G15" s="27"/>
       <c r="H15" s="28"/>
     </row>
-    <row r="16" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -2554,7 +2586,7 @@
       <c r="G16" s="27"/>
       <c r="H16" s="28"/>
     </row>
-    <row r="17" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -2563,7 +2595,7 @@
       <c r="G17" s="27"/>
       <c r="H17" s="28"/>
     </row>
-    <row r="18" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -2572,7 +2604,7 @@
       <c r="G18" s="27"/>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -2581,7 +2613,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="28"/>
     </row>
-    <row r="20" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
@@ -2590,7 +2622,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="28"/>
     </row>
-    <row r="21" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -2599,7 +2631,7 @@
       <c r="G21" s="27"/>
       <c r="H21" s="28"/>
     </row>
-    <row r="22" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -2608,7 +2640,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
     </row>
-    <row r="23" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -2617,7 +2649,7 @@
       <c r="G23" s="27"/>
       <c r="H23" s="28"/>
     </row>
-    <row r="24" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -2626,7 +2658,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="28"/>
     </row>
-    <row r="25" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -2635,7 +2667,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="28"/>
     </row>
-    <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -2644,7 +2676,7 @@
       <c r="G26" s="27"/>
       <c r="H26" s="28"/>
     </row>
-    <row r="27" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -2653,7 +2685,7 @@
       <c r="G27" s="27"/>
       <c r="H27" s="28"/>
     </row>
-    <row r="28" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27"/>
@@ -2662,7 +2694,7 @@
       <c r="G28" s="27"/>
       <c r="H28" s="28"/>
     </row>
-    <row r="29" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27"/>
@@ -2671,7 +2703,7 @@
       <c r="G29" s="27"/>
       <c r="H29" s="28"/>
     </row>
-    <row r="30" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
@@ -2680,7 +2712,7 @@
       <c r="G30" s="27"/>
       <c r="H30" s="28"/>
     </row>
-    <row r="31" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
@@ -2689,7 +2721,7 @@
       <c r="G31" s="27"/>
       <c r="H31" s="28"/>
     </row>
-    <row r="32" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27"/>
@@ -2698,7 +2730,7 @@
       <c r="G32" s="27"/>
       <c r="H32" s="28"/>
     </row>
-    <row r="33" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
       <c r="D33" s="27"/>
@@ -2707,7 +2739,7 @@
       <c r="G33" s="27"/>
       <c r="H33" s="28"/>
     </row>
-    <row r="34" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27"/>
@@ -2716,7 +2748,7 @@
       <c r="G34" s="27"/>
       <c r="H34" s="28"/>
     </row>
-    <row r="35" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27"/>
@@ -2725,7 +2757,7 @@
       <c r="G35" s="27"/>
       <c r="H35" s="28"/>
     </row>
-    <row r="36" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27"/>
@@ -2734,7 +2766,7 @@
       <c r="G36" s="27"/>
       <c r="H36" s="28"/>
     </row>
-    <row r="37" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27"/>
@@ -2743,7 +2775,7 @@
       <c r="G37" s="27"/>
       <c r="H37" s="28"/>
     </row>
-    <row r="38" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27"/>
@@ -2752,7 +2784,7 @@
       <c r="G38" s="27"/>
       <c r="H38" s="28"/>
     </row>
-    <row r="39" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="27"/>
       <c r="C39" s="27"/>
       <c r="D39" s="27"/>
@@ -2761,7 +2793,7 @@
       <c r="G39" s="27"/>
       <c r="H39" s="28"/>
     </row>
-    <row r="40" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="27"/>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
@@ -2770,7 +2802,7 @@
       <c r="G40" s="27"/>
       <c r="H40" s="28"/>
     </row>
-    <row r="41" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27"/>
@@ -2779,7 +2811,7 @@
       <c r="G41" s="27"/>
       <c r="H41" s="28"/>
     </row>
-    <row r="42" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
       <c r="C42" s="27"/>
       <c r="D42" s="27"/>
@@ -2788,7 +2820,7 @@
       <c r="G42" s="27"/>
       <c r="H42" s="28"/>
     </row>
-    <row r="43" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27"/>
@@ -2797,7 +2829,7 @@
       <c r="G43" s="27"/>
       <c r="H43" s="28"/>
     </row>
-    <row r="44" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27"/>
@@ -2806,7 +2838,7 @@
       <c r="G44" s="27"/>
       <c r="H44" s="28"/>
     </row>
-    <row r="45" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="27"/>
       <c r="C45" s="27"/>
       <c r="D45" s="27"/>
@@ -2815,7 +2847,7 @@
       <c r="G45" s="27"/>
       <c r="H45" s="28"/>
     </row>
-    <row r="46" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
       <c r="D46" s="27"/>
@@ -2824,7 +2856,7 @@
       <c r="G46" s="27"/>
       <c r="H46" s="28"/>
     </row>
-    <row r="47" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
       <c r="D47" s="27"/>
@@ -2833,7 +2865,7 @@
       <c r="G47" s="27"/>
       <c r="H47" s="28"/>
     </row>
-    <row r="48" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
       <c r="D48" s="27"/>
@@ -2842,7 +2874,7 @@
       <c r="G48" s="27"/>
       <c r="H48" s="28"/>
     </row>
-    <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="27"/>
       <c r="C49" s="27"/>
       <c r="D49" s="27"/>
@@ -2851,7 +2883,7 @@
       <c r="G49" s="27"/>
       <c r="H49" s="28"/>
     </row>
-    <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="27"/>
       <c r="C50" s="27"/>
       <c r="D50" s="27"/>
@@ -2860,7 +2892,7 @@
       <c r="G50" s="27"/>
       <c r="H50" s="28"/>
     </row>
-    <row r="51" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="27"/>
       <c r="C51" s="27"/>
       <c r="D51" s="27"/>
@@ -2869,7 +2901,7 @@
       <c r="G51" s="27"/>
       <c r="H51" s="28"/>
     </row>
-    <row r="52" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="27"/>
       <c r="C52" s="27"/>
       <c r="D52" s="27"/>
@@ -2878,7 +2910,7 @@
       <c r="G52" s="27"/>
       <c r="H52" s="28"/>
     </row>
-    <row r="53" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="27"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27"/>
@@ -2887,7 +2919,7 @@
       <c r="G53" s="27"/>
       <c r="H53" s="28"/>
     </row>
-    <row r="54" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="27"/>
       <c r="C54" s="27"/>
       <c r="D54" s="27"/>
@@ -2896,7 +2928,7 @@
       <c r="G54" s="27"/>
       <c r="H54" s="28"/>
     </row>
-    <row r="55" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="27"/>
       <c r="C55" s="27"/>
       <c r="D55" s="27"/>
@@ -2905,7 +2937,7 @@
       <c r="G55" s="27"/>
       <c r="H55" s="28"/>
     </row>
-    <row r="56" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="27"/>
       <c r="C56" s="27"/>
       <c r="D56" s="27"/>
@@ -2914,7 +2946,7 @@
       <c r="G56" s="27"/>
       <c r="H56" s="28"/>
     </row>
-    <row r="57" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="27"/>
       <c r="C57" s="27"/>
       <c r="D57" s="27"/>
@@ -2923,7 +2955,7 @@
       <c r="G57" s="27"/>
       <c r="H57" s="28"/>
     </row>
-    <row r="58" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="27"/>
       <c r="C58" s="27"/>
       <c r="D58" s="27"/>
@@ -2932,7 +2964,7 @@
       <c r="G58" s="27"/>
       <c r="H58" s="28"/>
     </row>
-    <row r="59" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="27"/>
       <c r="C59" s="27"/>
       <c r="D59" s="27"/>
@@ -2941,7 +2973,7 @@
       <c r="G59" s="27"/>
       <c r="H59" s="28"/>
     </row>
-    <row r="60" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="27"/>
       <c r="C60" s="27"/>
       <c r="D60" s="27"/>
@@ -2950,7 +2982,7 @@
       <c r="G60" s="27"/>
       <c r="H60" s="28"/>
     </row>
-    <row r="61" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="27"/>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -2959,7 +2991,7 @@
       <c r="G61" s="27"/>
       <c r="H61" s="28"/>
     </row>
-    <row r="62" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="27"/>
       <c r="C62" s="27"/>
       <c r="D62" s="27"/>
@@ -2968,7 +3000,7 @@
       <c r="G62" s="27"/>
       <c r="H62" s="28"/>
     </row>
-    <row r="63" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="27"/>
       <c r="C63" s="27"/>
       <c r="D63" s="27"/>
@@ -2977,7 +3009,7 @@
       <c r="G63" s="27"/>
       <c r="H63" s="28"/>
     </row>
-    <row r="64" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="27"/>
       <c r="C64" s="27"/>
       <c r="D64" s="27"/>
@@ -2986,7 +3018,7 @@
       <c r="G64" s="27"/>
       <c r="H64" s="28"/>
     </row>
-    <row r="65" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="27"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
@@ -2995,7 +3027,7 @@
       <c r="G65" s="27"/>
       <c r="H65" s="28"/>
     </row>
-    <row r="66" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="27"/>
       <c r="C66" s="27"/>
       <c r="D66" s="27"/>
@@ -3004,7 +3036,7 @@
       <c r="G66" s="27"/>
       <c r="H66" s="28"/>
     </row>
-    <row r="67" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="27"/>
       <c r="C67" s="27"/>
       <c r="D67" s="27"/>
@@ -3013,7 +3045,7 @@
       <c r="G67" s="27"/>
       <c r="H67" s="28"/>
     </row>
-    <row r="68" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="27"/>
       <c r="C68" s="27"/>
       <c r="D68" s="27"/>
@@ -3022,7 +3054,7 @@
       <c r="G68" s="27"/>
       <c r="H68" s="28"/>
     </row>
-    <row r="69" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="27"/>
       <c r="C69" s="27"/>
       <c r="D69" s="27"/>
@@ -3031,7 +3063,7 @@
       <c r="G69" s="27"/>
       <c r="H69" s="28"/>
     </row>
-    <row r="70" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="27"/>
       <c r="C70" s="27"/>
       <c r="D70" s="27"/>
@@ -3040,7 +3072,7 @@
       <c r="G70" s="27"/>
       <c r="H70" s="28"/>
     </row>
-    <row r="71" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="27"/>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
@@ -3049,7 +3081,7 @@
       <c r="G71" s="27"/>
       <c r="H71" s="28"/>
     </row>
-    <row r="72" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="27"/>
       <c r="C72" s="27"/>
       <c r="D72" s="27"/>
@@ -3058,7 +3090,7 @@
       <c r="G72" s="27"/>
       <c r="H72" s="28"/>
     </row>
-    <row r="73" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="27"/>
       <c r="C73" s="27"/>
       <c r="D73" s="27"/>
@@ -3067,7 +3099,7 @@
       <c r="G73" s="27"/>
       <c r="H73" s="28"/>
     </row>
-    <row r="74" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="27"/>
       <c r="C74" s="27"/>
       <c r="D74" s="27"/>
@@ -3076,7 +3108,7 @@
       <c r="G74" s="27"/>
       <c r="H74" s="28"/>
     </row>
-    <row r="75" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="27"/>
       <c r="C75" s="27"/>
       <c r="D75" s="27"/>
@@ -3085,7 +3117,7 @@
       <c r="G75" s="27"/>
       <c r="H75" s="28"/>
     </row>
-    <row r="76" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="27"/>
       <c r="C76" s="27"/>
       <c r="D76" s="27"/>
@@ -3094,7 +3126,7 @@
       <c r="G76" s="27"/>
       <c r="H76" s="28"/>
     </row>
-    <row r="77" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="27"/>
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
@@ -3103,7 +3135,7 @@
       <c r="G77" s="27"/>
       <c r="H77" s="28"/>
     </row>
-    <row r="78" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="27"/>
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
@@ -3112,7 +3144,7 @@
       <c r="G78" s="27"/>
       <c r="H78" s="28"/>
     </row>
-    <row r="79" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="27"/>
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
@@ -3121,7 +3153,7 @@
       <c r="G79" s="27"/>
       <c r="H79" s="28"/>
     </row>
-    <row r="80" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="27"/>
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
@@ -3130,7 +3162,7 @@
       <c r="G80" s="27"/>
       <c r="H80" s="28"/>
     </row>
-    <row r="81" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="27"/>
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
@@ -3139,7 +3171,7 @@
       <c r="G81" s="27"/>
       <c r="H81" s="28"/>
     </row>
-    <row r="82" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="27"/>
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
@@ -3148,7 +3180,7 @@
       <c r="G82" s="27"/>
       <c r="H82" s="28"/>
     </row>
-    <row r="83" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="27"/>
       <c r="C83" s="27"/>
       <c r="D83" s="27"/>
@@ -3157,7 +3189,7 @@
       <c r="G83" s="27"/>
       <c r="H83" s="28"/>
     </row>
-    <row r="84" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="27"/>
       <c r="C84" s="27"/>
       <c r="D84" s="27"/>
@@ -3166,7 +3198,7 @@
       <c r="G84" s="27"/>
       <c r="H84" s="28"/>
     </row>
-    <row r="85" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="27"/>
       <c r="C85" s="27"/>
       <c r="D85" s="27"/>
@@ -3175,7 +3207,7 @@
       <c r="G85" s="27"/>
       <c r="H85" s="28"/>
     </row>
-    <row r="86" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="27"/>
       <c r="C86" s="27"/>
       <c r="D86" s="27"/>
@@ -3184,7 +3216,7 @@
       <c r="G86" s="27"/>
       <c r="H86" s="28"/>
     </row>
-    <row r="87" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="27"/>
       <c r="C87" s="27"/>
       <c r="D87" s="27"/>
@@ -3193,7 +3225,7 @@
       <c r="G87" s="27"/>
       <c r="H87" s="28"/>
     </row>
-    <row r="88" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="27"/>
       <c r="C88" s="27"/>
       <c r="D88" s="27"/>
@@ -3202,7 +3234,7 @@
       <c r="G88" s="27"/>
       <c r="H88" s="28"/>
     </row>
-    <row r="89" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="27"/>
       <c r="C89" s="27"/>
       <c r="D89" s="27"/>
@@ -3211,7 +3243,7 @@
       <c r="G89" s="27"/>
       <c r="H89" s="28"/>
     </row>
-    <row r="90" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="27"/>
       <c r="C90" s="27"/>
       <c r="D90" s="27"/>
@@ -3220,7 +3252,7 @@
       <c r="G90" s="27"/>
       <c r="H90" s="28"/>
     </row>
-    <row r="91" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="27"/>
       <c r="C91" s="27"/>
       <c r="D91" s="27"/>
@@ -3229,7 +3261,7 @@
       <c r="G91" s="27"/>
       <c r="H91" s="28"/>
     </row>
-    <row r="92" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="27"/>
       <c r="C92" s="27"/>
       <c r="D92" s="27"/>
@@ -3238,7 +3270,7 @@
       <c r="G92" s="27"/>
       <c r="H92" s="28"/>
     </row>
-    <row r="93" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
       <c r="D93" s="27"/>
@@ -3247,7 +3279,7 @@
       <c r="G93" s="27"/>
       <c r="H93" s="28"/>
     </row>
-    <row r="94" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
       <c r="D94" s="27"/>
@@ -3256,7 +3288,7 @@
       <c r="G94" s="27"/>
       <c r="H94" s="28"/>
     </row>
-    <row r="95" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
       <c r="D95" s="27"/>
@@ -3265,7 +3297,7 @@
       <c r="G95" s="27"/>
       <c r="H95" s="28"/>
     </row>
-    <row r="96" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
       <c r="D96" s="27"/>
@@ -3274,7 +3306,7 @@
       <c r="G96" s="27"/>
       <c r="H96" s="28"/>
     </row>
-    <row r="97" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
       <c r="D97" s="27"/>
@@ -3283,7 +3315,7 @@
       <c r="G97" s="27"/>
       <c r="H97" s="28"/>
     </row>
-    <row r="98" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="27"/>
       <c r="C98" s="27"/>
       <c r="D98" s="27"/>
@@ -3292,7 +3324,7 @@
       <c r="G98" s="27"/>
       <c r="H98" s="28"/>
     </row>
-    <row r="99" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="27"/>
       <c r="C99" s="27"/>
       <c r="D99" s="27"/>
@@ -3301,7 +3333,7 @@
       <c r="G99" s="27"/>
       <c r="H99" s="28"/>
     </row>
-    <row r="100" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="27"/>
       <c r="C100" s="27"/>
       <c r="D100" s="27"/>
@@ -3310,7 +3342,7 @@
       <c r="G100" s="27"/>
       <c r="H100" s="28"/>
     </row>
-    <row r="101" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="27"/>
       <c r="C101" s="27"/>
       <c r="D101" s="27"/>
@@ -3319,7 +3351,7 @@
       <c r="G101" s="27"/>
       <c r="H101" s="28"/>
     </row>
-    <row r="102" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="27"/>
       <c r="C102" s="27"/>
       <c r="D102" s="27"/>
@@ -3328,7 +3360,7 @@
       <c r="G102" s="27"/>
       <c r="H102" s="28"/>
     </row>
-    <row r="103" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="27"/>
       <c r="C103" s="27"/>
       <c r="D103" s="27"/>
@@ -3337,7 +3369,7 @@
       <c r="G103" s="27"/>
       <c r="H103" s="28"/>
     </row>
-    <row r="104" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="27"/>
       <c r="C104" s="27"/>
       <c r="D104" s="27"/>
@@ -3346,7 +3378,7 @@
       <c r="G104" s="27"/>
       <c r="H104" s="28"/>
     </row>
-    <row r="105" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="27"/>
       <c r="C105" s="27"/>
       <c r="D105" s="27"/>
@@ -3355,7 +3387,7 @@
       <c r="G105" s="27"/>
       <c r="H105" s="28"/>
     </row>
-    <row r="106" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="27"/>
       <c r="C106" s="27"/>
       <c r="D106" s="27"/>
@@ -3364,7 +3396,7 @@
       <c r="G106" s="27"/>
       <c r="H106" s="28"/>
     </row>
-    <row r="107" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="27"/>
       <c r="C107" s="27"/>
       <c r="D107" s="27"/>
@@ -3373,7 +3405,7 @@
       <c r="G107" s="27"/>
       <c r="H107" s="28"/>
     </row>
-    <row r="108" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="27"/>
       <c r="C108" s="27"/>
       <c r="D108" s="27"/>
@@ -3382,7 +3414,7 @@
       <c r="G108" s="27"/>
       <c r="H108" s="28"/>
     </row>
-    <row r="109" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="27"/>
       <c r="C109" s="27"/>
       <c r="D109" s="27"/>
@@ -3391,7 +3423,7 @@
       <c r="G109" s="27"/>
       <c r="H109" s="28"/>
     </row>
-    <row r="110" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="27"/>
       <c r="C110" s="27"/>
       <c r="D110" s="27"/>
@@ -3400,7 +3432,7 @@
       <c r="G110" s="27"/>
       <c r="H110" s="28"/>
     </row>
-    <row r="111" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="27"/>
       <c r="C111" s="27"/>
       <c r="D111" s="27"/>
@@ -3409,7 +3441,7 @@
       <c r="G111" s="27"/>
       <c r="H111" s="28"/>
     </row>
-    <row r="112" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="27"/>
       <c r="C112" s="27"/>
       <c r="D112" s="27"/>
@@ -3418,7 +3450,7 @@
       <c r="G112" s="27"/>
       <c r="H112" s="28"/>
     </row>
-    <row r="113" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="27"/>
       <c r="C113" s="27"/>
       <c r="D113" s="27"/>
@@ -3427,7 +3459,7 @@
       <c r="G113" s="27"/>
       <c r="H113" s="28"/>
     </row>
-    <row r="114" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="27"/>
       <c r="C114" s="27"/>
       <c r="D114" s="27"/>
@@ -3436,7 +3468,7 @@
       <c r="G114" s="27"/>
       <c r="H114" s="28"/>
     </row>
-    <row r="115" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="27"/>
       <c r="C115" s="27"/>
       <c r="D115" s="27"/>
@@ -3445,7 +3477,7 @@
       <c r="G115" s="27"/>
       <c r="H115" s="28"/>
     </row>
-    <row r="116" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="27"/>
       <c r="C116" s="27"/>
       <c r="D116" s="27"/>
@@ -3454,7 +3486,7 @@
       <c r="G116" s="27"/>
       <c r="H116" s="28"/>
     </row>
-    <row r="117" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="27"/>
       <c r="C117" s="27"/>
       <c r="D117" s="27"/>
@@ -3463,7 +3495,7 @@
       <c r="G117" s="27"/>
       <c r="H117" s="28"/>
     </row>
-    <row r="118" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="27"/>
       <c r="C118" s="27"/>
       <c r="D118" s="27"/>
@@ -3472,7 +3504,7 @@
       <c r="G118" s="27"/>
       <c r="H118" s="28"/>
     </row>
-    <row r="119" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="27"/>
       <c r="C119" s="27"/>
       <c r="D119" s="27"/>
@@ -3481,7 +3513,7 @@
       <c r="G119" s="27"/>
       <c r="H119" s="28"/>
     </row>
-    <row r="120" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="27"/>
       <c r="C120" s="27"/>
       <c r="D120" s="27"/>
@@ -3490,7 +3522,7 @@
       <c r="G120" s="27"/>
       <c r="H120" s="28"/>
     </row>
-    <row r="121" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="27"/>
       <c r="C121" s="27"/>
       <c r="D121" s="27"/>
@@ -3499,7 +3531,7 @@
       <c r="G121" s="27"/>
       <c r="H121" s="28"/>
     </row>
-    <row r="122" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="27"/>
       <c r="C122" s="27"/>
       <c r="D122" s="27"/>
@@ -3508,7 +3540,7 @@
       <c r="G122" s="27"/>
       <c r="H122" s="28"/>
     </row>
-    <row r="123" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="27"/>
       <c r="C123" s="27"/>
       <c r="D123" s="27"/>
@@ -3517,7 +3549,7 @@
       <c r="G123" s="27"/>
       <c r="H123" s="28"/>
     </row>
-    <row r="124" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="27"/>
       <c r="C124" s="27"/>
       <c r="D124" s="27"/>
@@ -3526,7 +3558,7 @@
       <c r="G124" s="27"/>
       <c r="H124" s="28"/>
     </row>
-    <row r="125" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="27"/>
       <c r="C125" s="27"/>
       <c r="D125" s="27"/>
@@ -3535,7 +3567,7 @@
       <c r="G125" s="27"/>
       <c r="H125" s="28"/>
     </row>
-    <row r="126" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="27"/>
       <c r="C126" s="27"/>
       <c r="D126" s="27"/>
@@ -3544,7 +3576,7 @@
       <c r="G126" s="27"/>
       <c r="H126" s="28"/>
     </row>
-    <row r="127" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="27"/>
       <c r="C127" s="27"/>
       <c r="D127" s="27"/>
@@ -3553,7 +3585,7 @@
       <c r="G127" s="27"/>
       <c r="H127" s="28"/>
     </row>
-    <row r="128" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="27"/>
       <c r="C128" s="27"/>
       <c r="D128" s="27"/>
@@ -3562,7 +3594,7 @@
       <c r="G128" s="27"/>
       <c r="H128" s="28"/>
     </row>
-    <row r="129" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="27"/>
       <c r="C129" s="27"/>
       <c r="D129" s="27"/>
@@ -3571,7 +3603,7 @@
       <c r="G129" s="27"/>
       <c r="H129" s="28"/>
     </row>
-    <row r="130" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="27"/>
       <c r="C130" s="27"/>
       <c r="D130" s="27"/>
@@ -3580,7 +3612,7 @@
       <c r="G130" s="27"/>
       <c r="H130" s="28"/>
     </row>
-    <row r="131" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="27"/>
       <c r="C131" s="27"/>
       <c r="D131" s="27"/>
@@ -3589,7 +3621,7 @@
       <c r="G131" s="27"/>
       <c r="H131" s="28"/>
     </row>
-    <row r="132" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="27"/>
       <c r="C132" s="27"/>
       <c r="D132" s="27"/>
@@ -3598,7 +3630,7 @@
       <c r="G132" s="27"/>
       <c r="H132" s="28"/>
     </row>
-    <row r="133" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="27"/>
       <c r="C133" s="27"/>
       <c r="D133" s="27"/>
@@ -3607,7 +3639,7 @@
       <c r="G133" s="27"/>
       <c r="H133" s="28"/>
     </row>
-    <row r="134" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="27"/>
       <c r="C134" s="27"/>
       <c r="D134" s="27"/>
@@ -3616,7 +3648,7 @@
       <c r="G134" s="27"/>
       <c r="H134" s="28"/>
     </row>
-    <row r="135" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="27"/>
       <c r="C135" s="27"/>
       <c r="D135" s="27"/>
@@ -3625,7 +3657,7 @@
       <c r="G135" s="27"/>
       <c r="H135" s="28"/>
     </row>
-    <row r="136" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="27"/>
       <c r="C136" s="27"/>
       <c r="D136" s="27"/>
@@ -3634,7 +3666,7 @@
       <c r="G136" s="27"/>
       <c r="H136" s="28"/>
     </row>
-    <row r="137" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="27"/>
       <c r="C137" s="27"/>
       <c r="D137" s="27"/>
@@ -3643,7 +3675,7 @@
       <c r="G137" s="27"/>
       <c r="H137" s="28"/>
     </row>
-    <row r="138" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="27"/>
       <c r="C138" s="27"/>
       <c r="D138" s="27"/>
@@ -3652,7 +3684,7 @@
       <c r="G138" s="27"/>
       <c r="H138" s="28"/>
     </row>
-    <row r="139" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="27"/>
       <c r="C139" s="27"/>
       <c r="D139" s="27"/>
@@ -3661,7 +3693,7 @@
       <c r="G139" s="27"/>
       <c r="H139" s="28"/>
     </row>
-    <row r="140" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="27"/>
       <c r="C140" s="27"/>
       <c r="D140" s="27"/>
@@ -3670,7 +3702,7 @@
       <c r="G140" s="27"/>
       <c r="H140" s="28"/>
     </row>
-    <row r="141" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="27"/>
       <c r="C141" s="27"/>
       <c r="D141" s="27"/>
@@ -3679,7 +3711,7 @@
       <c r="G141" s="27"/>
       <c r="H141" s="28"/>
     </row>
-    <row r="142" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="27"/>
       <c r="C142" s="27"/>
       <c r="D142" s="27"/>
@@ -3688,7 +3720,7 @@
       <c r="G142" s="27"/>
       <c r="H142" s="28"/>
     </row>
-    <row r="143" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="27"/>
       <c r="C143" s="27"/>
       <c r="D143" s="27"/>
@@ -3697,7 +3729,7 @@
       <c r="G143" s="27"/>
       <c r="H143" s="28"/>
     </row>
-    <row r="144" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="27"/>
       <c r="C144" s="27"/>
       <c r="D144" s="27"/>
@@ -3706,7 +3738,7 @@
       <c r="G144" s="27"/>
       <c r="H144" s="28"/>
     </row>
-    <row r="145" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="27"/>
       <c r="C145" s="27"/>
       <c r="D145" s="27"/>
@@ -3715,7 +3747,7 @@
       <c r="G145" s="27"/>
       <c r="H145" s="28"/>
     </row>
-    <row r="146" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="27"/>
       <c r="C146" s="27"/>
       <c r="D146" s="27"/>
@@ -3724,7 +3756,7 @@
       <c r="G146" s="27"/>
       <c r="H146" s="28"/>
     </row>
-    <row r="147" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="27"/>
       <c r="C147" s="27"/>
       <c r="D147" s="27"/>
@@ -3733,7 +3765,7 @@
       <c r="G147" s="27"/>
       <c r="H147" s="28"/>
     </row>
-    <row r="148" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="27"/>
       <c r="C148" s="27"/>
       <c r="D148" s="27"/>
@@ -3742,7 +3774,7 @@
       <c r="G148" s="27"/>
       <c r="H148" s="28"/>
     </row>
-    <row r="149" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="27"/>
       <c r="C149" s="27"/>
       <c r="D149" s="27"/>
@@ -3751,7 +3783,7 @@
       <c r="G149" s="27"/>
       <c r="H149" s="28"/>
     </row>
-    <row r="150" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="27"/>
       <c r="C150" s="27"/>
       <c r="D150" s="27"/>
@@ -3760,7 +3792,7 @@
       <c r="G150" s="27"/>
       <c r="H150" s="28"/>
     </row>
-    <row r="151" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="27"/>
       <c r="C151" s="27"/>
       <c r="D151" s="27"/>
@@ -3769,7 +3801,7 @@
       <c r="G151" s="27"/>
       <c r="H151" s="28"/>
     </row>
-    <row r="152" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="27"/>
       <c r="C152" s="27"/>
       <c r="D152" s="27"/>
@@ -3778,7 +3810,7 @@
       <c r="G152" s="27"/>
       <c r="H152" s="28"/>
     </row>
-    <row r="153" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="27"/>
       <c r="C153" s="27"/>
       <c r="D153" s="27"/>
@@ -3787,7 +3819,7 @@
       <c r="G153" s="27"/>
       <c r="H153" s="28"/>
     </row>
-    <row r="154" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="27"/>
       <c r="C154" s="27"/>
       <c r="D154" s="27"/>
@@ -3796,7 +3828,7 @@
       <c r="G154" s="27"/>
       <c r="H154" s="28"/>
     </row>
-    <row r="155" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="27"/>
       <c r="C155" s="27"/>
       <c r="D155" s="27"/>
@@ -3805,7 +3837,7 @@
       <c r="G155" s="27"/>
       <c r="H155" s="28"/>
     </row>
-    <row r="156" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="27"/>
       <c r="C156" s="27"/>
       <c r="D156" s="27"/>
@@ -3814,7 +3846,7 @@
       <c r="G156" s="27"/>
       <c r="H156" s="28"/>
     </row>
-    <row r="157" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="27"/>
       <c r="C157" s="27"/>
       <c r="D157" s="27"/>
@@ -3823,7 +3855,7 @@
       <c r="G157" s="27"/>
       <c r="H157" s="28"/>
     </row>
-    <row r="158" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="27"/>
       <c r="C158" s="27"/>
       <c r="D158" s="27"/>
@@ -3832,7 +3864,7 @@
       <c r="G158" s="27"/>
       <c r="H158" s="28"/>
     </row>
-    <row r="159" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="27"/>
       <c r="C159" s="27"/>
       <c r="D159" s="27"/>
@@ -3841,7 +3873,7 @@
       <c r="G159" s="27"/>
       <c r="H159" s="28"/>
     </row>
-    <row r="160" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="27"/>
       <c r="C160" s="27"/>
       <c r="D160" s="27"/>
@@ -3850,7 +3882,7 @@
       <c r="G160" s="27"/>
       <c r="H160" s="28"/>
     </row>
-    <row r="161" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="27"/>
       <c r="C161" s="27"/>
       <c r="D161" s="27"/>
@@ -3859,7 +3891,7 @@
       <c r="G161" s="27"/>
       <c r="H161" s="28"/>
     </row>
-    <row r="162" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="27"/>
       <c r="C162" s="27"/>
       <c r="D162" s="27"/>
@@ -3868,7 +3900,7 @@
       <c r="G162" s="27"/>
       <c r="H162" s="28"/>
     </row>
-    <row r="163" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="27"/>
       <c r="C163" s="27"/>
       <c r="D163" s="27"/>
@@ -3877,7 +3909,7 @@
       <c r="G163" s="27"/>
       <c r="H163" s="28"/>
     </row>
-    <row r="164" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="27"/>
       <c r="C164" s="27"/>
       <c r="D164" s="27"/>
@@ -3886,7 +3918,7 @@
       <c r="G164" s="27"/>
       <c r="H164" s="28"/>
     </row>
-    <row r="165" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="27"/>
       <c r="C165" s="27"/>
       <c r="D165" s="27"/>
@@ -3895,7 +3927,7 @@
       <c r="G165" s="27"/>
       <c r="H165" s="28"/>
     </row>
-    <row r="166" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="27"/>
       <c r="C166" s="27"/>
       <c r="D166" s="27"/>
@@ -3904,7 +3936,7 @@
       <c r="G166" s="27"/>
       <c r="H166" s="28"/>
     </row>
-    <row r="167" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="27"/>
       <c r="C167" s="27"/>
       <c r="D167" s="27"/>
@@ -3913,7 +3945,7 @@
       <c r="G167" s="27"/>
       <c r="H167" s="28"/>
     </row>
-    <row r="168" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="27"/>
       <c r="C168" s="27"/>
       <c r="D168" s="27"/>
@@ -3922,7 +3954,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="28"/>
     </row>
-    <row r="169" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="27"/>
       <c r="C169" s="27"/>
       <c r="D169" s="27"/>
@@ -3931,7 +3963,7 @@
       <c r="G169" s="27"/>
       <c r="H169" s="28"/>
     </row>
-    <row r="170" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="27"/>
       <c r="C170" s="27"/>
       <c r="D170" s="27"/>
@@ -3940,7 +3972,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="28"/>
     </row>
-    <row r="171" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="27"/>
       <c r="C171" s="27"/>
       <c r="D171" s="27"/>
@@ -3949,7 +3981,7 @@
       <c r="G171" s="27"/>
       <c r="H171" s="28"/>
     </row>
-    <row r="172" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="27"/>
       <c r="C172" s="27"/>
       <c r="D172" s="27"/>
@@ -3958,7 +3990,7 @@
       <c r="G172" s="27"/>
       <c r="H172" s="28"/>
     </row>
-    <row r="173" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="27"/>
       <c r="C173" s="27"/>
       <c r="D173" s="27"/>
@@ -3967,7 +3999,7 @@
       <c r="G173" s="27"/>
       <c r="H173" s="28"/>
     </row>
-    <row r="174" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="27"/>
       <c r="C174" s="27"/>
       <c r="D174" s="27"/>
@@ -3976,7 +4008,7 @@
       <c r="G174" s="27"/>
       <c r="H174" s="28"/>
     </row>
-    <row r="175" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="27"/>
       <c r="C175" s="27"/>
       <c r="D175" s="27"/>
@@ -3985,7 +4017,7 @@
       <c r="G175" s="27"/>
       <c r="H175" s="28"/>
     </row>
-    <row r="176" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="27"/>
       <c r="C176" s="27"/>
       <c r="D176" s="27"/>
@@ -3994,7 +4026,7 @@
       <c r="G176" s="27"/>
       <c r="H176" s="28"/>
     </row>
-    <row r="177" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="27"/>
       <c r="C177" s="27"/>
       <c r="D177" s="27"/>
@@ -4003,7 +4035,7 @@
       <c r="G177" s="27"/>
       <c r="H177" s="28"/>
     </row>
-    <row r="178" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="27"/>
       <c r="C178" s="27"/>
       <c r="D178" s="27"/>
@@ -4012,7 +4044,7 @@
       <c r="G178" s="27"/>
       <c r="H178" s="28"/>
     </row>
-    <row r="179" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="27"/>
       <c r="C179" s="27"/>
       <c r="D179" s="27"/>
@@ -4021,7 +4053,7 @@
       <c r="G179" s="27"/>
       <c r="H179" s="28"/>
     </row>
-    <row r="180" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="27"/>
       <c r="C180" s="27"/>
       <c r="D180" s="27"/>
@@ -4030,7 +4062,7 @@
       <c r="G180" s="27"/>
       <c r="H180" s="28"/>
     </row>
-    <row r="181" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="27"/>
       <c r="C181" s="27"/>
       <c r="D181" s="27"/>
@@ -4039,7 +4071,7 @@
       <c r="G181" s="27"/>
       <c r="H181" s="28"/>
     </row>
-    <row r="182" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="27"/>
       <c r="C182" s="27"/>
       <c r="D182" s="27"/>
@@ -4048,7 +4080,7 @@
       <c r="G182" s="27"/>
       <c r="H182" s="28"/>
     </row>
-    <row r="183" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="27"/>
       <c r="C183" s="27"/>
       <c r="D183" s="27"/>
@@ -4057,7 +4089,7 @@
       <c r="G183" s="27"/>
       <c r="H183" s="28"/>
     </row>
-    <row r="184" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="27"/>
       <c r="C184" s="27"/>
       <c r="D184" s="27"/>
@@ -4066,7 +4098,7 @@
       <c r="G184" s="27"/>
       <c r="H184" s="28"/>
     </row>
-    <row r="185" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="27"/>
       <c r="C185" s="27"/>
       <c r="D185" s="27"/>
@@ -4075,7 +4107,7 @@
       <c r="G185" s="27"/>
       <c r="H185" s="28"/>
     </row>
-    <row r="186" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="27"/>
       <c r="C186" s="27"/>
       <c r="D186" s="27"/>
@@ -4084,7 +4116,7 @@
       <c r="G186" s="27"/>
       <c r="H186" s="28"/>
     </row>
-    <row r="187" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="27"/>
       <c r="C187" s="27"/>
       <c r="D187" s="27"/>
@@ -4093,7 +4125,7 @@
       <c r="G187" s="27"/>
       <c r="H187" s="28"/>
     </row>
-    <row r="188" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="27"/>
       <c r="C188" s="27"/>
       <c r="D188" s="27"/>
@@ -4102,7 +4134,7 @@
       <c r="G188" s="27"/>
       <c r="H188" s="28"/>
     </row>
-    <row r="189" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="27"/>
       <c r="C189" s="27"/>
       <c r="D189" s="27"/>
@@ -4111,7 +4143,7 @@
       <c r="G189" s="27"/>
       <c r="H189" s="28"/>
     </row>
-    <row r="190" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="27"/>
       <c r="C190" s="27"/>
       <c r="D190" s="27"/>
@@ -4120,7 +4152,7 @@
       <c r="G190" s="27"/>
       <c r="H190" s="28"/>
     </row>
-    <row r="191" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="27"/>
       <c r="C191" s="27"/>
       <c r="D191" s="27"/>
@@ -4129,7 +4161,7 @@
       <c r="G191" s="27"/>
       <c r="H191" s="28"/>
     </row>
-    <row r="192" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="27"/>
       <c r="C192" s="27"/>
       <c r="D192" s="27"/>
@@ -4138,7 +4170,7 @@
       <c r="G192" s="27"/>
       <c r="H192" s="28"/>
     </row>
-    <row r="193" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="27"/>
       <c r="C193" s="27"/>
       <c r="D193" s="27"/>
@@ -4147,7 +4179,7 @@
       <c r="G193" s="27"/>
       <c r="H193" s="28"/>
     </row>
-    <row r="194" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="27"/>
       <c r="C194" s="27"/>
       <c r="D194" s="27"/>
@@ -4156,7 +4188,7 @@
       <c r="G194" s="27"/>
       <c r="H194" s="28"/>
     </row>
-    <row r="195" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="27"/>
       <c r="C195" s="27"/>
       <c r="D195" s="27"/>
@@ -4165,7 +4197,7 @@
       <c r="G195" s="27"/>
       <c r="H195" s="28"/>
     </row>
-    <row r="196" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="27"/>
       <c r="C196" s="27"/>
       <c r="D196" s="27"/>
@@ -4174,7 +4206,7 @@
       <c r="G196" s="27"/>
       <c r="H196" s="28"/>
     </row>
-    <row r="197" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="27"/>
       <c r="C197" s="27"/>
       <c r="D197" s="27"/>
@@ -4183,7 +4215,7 @@
       <c r="G197" s="27"/>
       <c r="H197" s="28"/>
     </row>
-    <row r="198" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="27"/>
       <c r="C198" s="27"/>
       <c r="D198" s="27"/>
@@ -4192,7 +4224,7 @@
       <c r="G198" s="27"/>
       <c r="H198" s="28"/>
     </row>
-    <row r="199" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="27"/>
       <c r="C199" s="27"/>
       <c r="D199" s="27"/>
@@ -4201,7 +4233,7 @@
       <c r="G199" s="27"/>
       <c r="H199" s="28"/>
     </row>
-    <row r="200" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="27"/>
       <c r="C200" s="27"/>
       <c r="D200" s="27"/>
@@ -4210,7 +4242,7 @@
       <c r="G200" s="27"/>
       <c r="H200" s="28"/>
     </row>
-    <row r="201" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="27"/>
       <c r="C201" s="27"/>
       <c r="D201" s="27"/>
@@ -4219,7 +4251,7 @@
       <c r="G201" s="27"/>
       <c r="H201" s="28"/>
     </row>
-    <row r="202" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="27"/>
       <c r="C202" s="27"/>
       <c r="D202" s="27"/>
@@ -4228,7 +4260,7 @@
       <c r="G202" s="27"/>
       <c r="H202" s="28"/>
     </row>
-    <row r="203" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="27"/>
       <c r="C203" s="27"/>
       <c r="D203" s="27"/>
@@ -4237,7 +4269,7 @@
       <c r="G203" s="27"/>
       <c r="H203" s="28"/>
     </row>
-    <row r="204" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="27"/>
       <c r="C204" s="27"/>
       <c r="D204" s="27"/>
@@ -4246,7 +4278,7 @@
       <c r="G204" s="27"/>
       <c r="H204" s="28"/>
     </row>
-    <row r="205" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="27"/>
       <c r="C205" s="27"/>
       <c r="D205" s="27"/>
@@ -4255,7 +4287,7 @@
       <c r="G205" s="27"/>
       <c r="H205" s="28"/>
     </row>
-    <row r="206" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="27"/>
       <c r="C206" s="27"/>
       <c r="D206" s="27"/>
@@ -4264,7 +4296,7 @@
       <c r="G206" s="27"/>
       <c r="H206" s="28"/>
     </row>
-    <row r="207" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="27"/>
       <c r="C207" s="27"/>
       <c r="D207" s="27"/>
@@ -4273,7 +4305,7 @@
       <c r="G207" s="27"/>
       <c r="H207" s="28"/>
     </row>
-    <row r="208" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="27"/>
       <c r="C208" s="27"/>
       <c r="D208" s="27"/>
@@ -4282,7 +4314,7 @@
       <c r="G208" s="27"/>
       <c r="H208" s="28"/>
     </row>
-    <row r="209" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="27"/>
       <c r="C209" s="27"/>
       <c r="D209" s="27"/>
@@ -4291,7 +4323,7 @@
       <c r="G209" s="27"/>
       <c r="H209" s="28"/>
     </row>
-    <row r="210" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="27"/>
       <c r="C210" s="27"/>
       <c r="D210" s="27"/>
@@ -4300,7 +4332,7 @@
       <c r="G210" s="27"/>
       <c r="H210" s="28"/>
     </row>
-    <row r="211" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="27"/>
       <c r="C211" s="27"/>
       <c r="D211" s="27"/>
@@ -4309,7 +4341,7 @@
       <c r="G211" s="27"/>
       <c r="H211" s="28"/>
     </row>
-    <row r="212" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="27"/>
       <c r="C212" s="27"/>
       <c r="D212" s="27"/>
@@ -4318,7 +4350,7 @@
       <c r="G212" s="27"/>
       <c r="H212" s="28"/>
     </row>
-    <row r="213" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="27"/>
       <c r="C213" s="27"/>
       <c r="D213" s="27"/>
@@ -4327,7 +4359,7 @@
       <c r="G213" s="27"/>
       <c r="H213" s="28"/>
     </row>
-    <row r="214" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="27"/>
       <c r="C214" s="27"/>
       <c r="D214" s="27"/>
@@ -4336,7 +4368,7 @@
       <c r="G214" s="27"/>
       <c r="H214" s="28"/>
     </row>
-    <row r="215" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="27"/>
       <c r="C215" s="27"/>
       <c r="D215" s="27"/>
@@ -4345,7 +4377,7 @@
       <c r="G215" s="27"/>
       <c r="H215" s="28"/>
     </row>
-    <row r="216" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="27"/>
       <c r="C216" s="27"/>
       <c r="D216" s="27"/>
@@ -4354,7 +4386,7 @@
       <c r="G216" s="27"/>
       <c r="H216" s="28"/>
     </row>
-    <row r="217" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="27"/>
       <c r="C217" s="27"/>
       <c r="D217" s="27"/>
@@ -4363,7 +4395,7 @@
       <c r="G217" s="27"/>
       <c r="H217" s="28"/>
     </row>
-    <row r="218" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="27"/>
       <c r="C218" s="27"/>
       <c r="D218" s="27"/>
@@ -4372,7 +4404,7 @@
       <c r="G218" s="27"/>
       <c r="H218" s="28"/>
     </row>
-    <row r="219" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="27"/>
       <c r="C219" s="27"/>
       <c r="D219" s="27"/>
@@ -4381,7 +4413,7 @@
       <c r="G219" s="27"/>
       <c r="H219" s="28"/>
     </row>
-    <row r="220" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="27"/>
       <c r="C220" s="27"/>
       <c r="D220" s="27"/>
@@ -4390,786 +4422,786 @@
       <c r="G220" s="27"/>
       <c r="H220" s="28"/>
     </row>
-    <row r="221" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
